--- a/medicine/Enfance/Soledad_Bravi/Soledad_Bravi.xlsx
+++ b/medicine/Enfance/Soledad_Bravi/Soledad_Bravi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Soledad Bravi est une illustratrice française et auteure d'ouvrage pour la jeunesse, née le 1er avril 1965 à Paris.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soledad Bravi, fille de Mila Boutan[1] sort diplômée de l’École supérieure d'arts graphiques Penninghen en 1988. Elle travaille comme directrice artistique dans la publicité, puis devient illustratrice professionnelle en 1993. Elle est l'auteure de nombreux livres chez différents éditeurs (l'École des loisirs, Marabout, Gallimard, Seuil, Mila). Elle collabore avec le magazine Elle, Colette, le pâtissier Pierre Hermé, Chanel, Petit Jour Paris, Image Republic, Monoprix et les marques de beauté Clarins et L'Occitane en Provence. Depuis mai 2012, chaque semaine, elle a sa propre page dans le magazine Elle France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soledad Bravi, fille de Mila Boutan sort diplômée de l’École supérieure d'arts graphiques Penninghen en 1988. Elle travaille comme directrice artistique dans la publicité, puis devient illustratrice professionnelle en 1993. Elle est l'auteure de nombreux livres chez différents éditeurs (l'École des loisirs, Marabout, Gallimard, Seuil, Mila). Elle collabore avec le magazine Elle, Colette, le pâtissier Pierre Hermé, Chanel, Petit Jour Paris, Image Republic, Monoprix et les marques de beauté Clarins et L'Occitane en Provence. Depuis mai 2012, chaque semaine, elle a sa propre page dans le magazine Elle France.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteure-illustratrice
-Mon garage[2], éditions Saltimbanque, 2024  (ISBN 9782378013073)
+          <t>Auteure-illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mon garage, éditions Saltimbanque, 2024  (ISBN 9782378013073)
 Crocococo, L'école des loisirs , 2023
 Mon chien Scott, L'école des loisirs , 2023
 Le livre des je veux !, L'école des loisirs , 2023
@@ -566,17 +585,17 @@
 Trop de chance, Gabi !, École des loisirs, coll. « Mouche », 2018
  Vive la vie, Gabi !, École des loisirs, coll. « Mouche », 2018
 Tout schuss, Gabi !, École des loisirs, coll. « Mouche », 2018
-Pourquoi y a-t-il des inégalités entre les hommes et les femmes ?, Rue de Sèvres, 2018[3]
+Pourquoi y a-t-il des inégalités entre les hommes et les femmes ?, Rue de Sèvres, 2018
 La BD de Soledad : la compile de l'année, t.5, Rue de Sèvres, 2017
 Mon petit doigt m'a dit, École des loisirs, coll. « Loulou et cie », 2017
 Mon cahier à tout dessiner , L'école des loisirs , 2016
-Bart is back,Denoël, 2016[4]
+Bart is back,Denoël, 2016
 Le pigeon qui voulait être un canard, Bayard, 2016
 La BD de Soledad : la compile de l'année, t.4, Rue de Sèvres, 2016
 Une journée avec le Père Noël, École des loisirs, coll. « Loulou et cie », 2016
 Marie-Puce, Milan, coll. « Milan et demi, » 2015
 La BD de Soledad : la compile de l'année, t.3, Rue de Sèvres, 2015
-L'Iliade et l'Odyssée, Rue de Sèvres, 2015[5]
+L'Iliade et l'Odyssée, Rue de Sèvres, 2015
 Que font les animaux quand il pleut ?, École des loisirs, coll. « Loulou et cie », 2015
 Maman, comment on fait les bébés ?, École des loisirs, coll. « Loulou et cie », 2015
 Maman dans tes bras, École des loisirs, coll. « Loulou et cie », 2014
@@ -614,9 +633,43 @@
 Soledad, c'est quoi... L'homme, Hachette jeunesse, 2001
 Soledad, c'est quoi... Le loup, Hachette jeunesse, 2001
 Soledad, c'est quoi... Les arbres, Hachette jeunesse, 2000
-Soledad, c'est quoi... La vache, Hachette jeunesse, 2000
-Illustratrice
-Ma préhistoire d'amour, de Grégoire Solotareff , L'école des loisirs , 2022
+Soledad, c'est quoi... La vache, Hachette jeunesse, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Soledad_Bravi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soledad_Bravi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ma préhistoire d'amour, de Grégoire Solotareff , L'école des loisirs , 2022
 Dans la tête de mon ado de Agathe de Lastic , dessin de Soledad Bravi , Vent d'ouest , 2022
 Adieu, tante Aimée, texte d'Agnès Mathieu-Daudé, École des loisirs, coll. « Neuf », 2021
 Avez-vous lu les classiques de la littérature ?, t. 4, scénario de Soledad Bravi et Pascale Frey, Rue de Sèvres, 2021
